--- a/web/plantillas/PlantillaAgrupacion.xlsx
+++ b/web/plantillas/PlantillaAgrupacion.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>AGRUPACIÓN</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>HORAS COMPROMETIDAS</t>
+  </si>
+  <si>
+    <t>HORAS REALIZADAS</t>
   </si>
 </sst>
 </file>
@@ -482,15 +488,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B13:H14">
-  <autoFilter ref="B13:H14"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B13:J14">
+  <autoFilter ref="B13:J14"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="ID" totalsRowLabel="Total"/>
     <tableColumn id="2" name="NUMERO" totalsRowFunction="count"/>
     <tableColumn id="3" name="TITULO" dataDxfId="1" totalsRowDxfId="0"/>
     <tableColumn id="4" name="OBJETO"/>
     <tableColumn id="5" name="ESTADO"/>
     <tableColumn id="6" name="FECHA ESTADO"/>
+    <tableColumn id="9" name="HORAS COMPROMETIDAS"/>
+    <tableColumn id="8" name="HORAS REALIZADAS"/>
     <tableColumn id="7" name="ANOTACIÓN" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -784,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:M14"/>
+  <dimension ref="B7:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,25 +805,25 @@
     <col min="4" max="4" width="78.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="88.5703125" customWidth="1"/>
-    <col min="9" max="9" width="88.42578125" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="7" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="88.5703125" customWidth="1"/>
+    <col min="11" max="11" width="88.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:13" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="2:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
@@ -826,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -838,8 +846,10 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -859,10 +869,16 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
   </sheetData>
